--- a/datascience/dataanalysis/Use_Case_2_High_rise_building_and_public_transport_assumptions.xlsx
+++ b/datascience/dataanalysis/Use_Case_2_High_rise_building_and_public_transport_assumptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2f37f0a499eb111/Deakin/Masters in Data Science/SIT 764 Team Project (A) Project Management and Practices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{912EE7BF-3F17-9D44-8152-2C9CEEA1D5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{912EE7BF-3F17-9D44-8152-2C9CEEA1D5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D10EFB0A-B11C-974E-9778-56456DAC64D8}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="4480" windowWidth="28560" windowHeight="14500" xr2:uid="{72077859-66C9-034D-9E3C-F84BC39D3C36}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Train</t>
   </si>
@@ -71,10 +71,67 @@
     <t>Bus, Train</t>
   </si>
   <si>
-    <t>Assume 60% of inner Melbourne residents use transport</t>
-  </si>
-  <si>
-    <t>Probability of using transport hubs</t>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>60% of inner Melbourne residents use transport</t>
+  </si>
+  <si>
+    <t>40% of inner Melbourne residents walk</t>
+  </si>
+  <si>
+    <t>Action Plan</t>
+  </si>
+  <si>
+    <t>Get data on transportation systems in melbourne</t>
+  </si>
+  <si>
+    <t>Plot them together with high rise data</t>
+  </si>
+  <si>
+    <t>Find the closest transportation point to each high rise dwelling</t>
+  </si>
+  <si>
+    <t>Calculate the average distance between a dwelling and a transportation point. </t>
+  </si>
+  <si>
+    <t>Plot these distances on the map to see how each district performs</t>
+  </si>
+  <si>
+    <t>Next Analysis:</t>
+  </si>
+  <si>
+    <t>Developing buildings vs transportation points</t>
+  </si>
+  <si>
+    <t>Secondary Analysis:</t>
+  </si>
+  <si>
+    <t>Availability of public transport vs median income(demographic data)</t>
+  </si>
+  <si>
+    <t>High rise buildings vs median income(demographic data)</t>
+  </si>
+  <si>
+    <t>Livability:</t>
+  </si>
+  <si>
+    <t>Livability score vs transportation points</t>
+  </si>
+  <si>
+    <t>Probability of using transport hubs (P_Tr_Hub)</t>
+  </si>
+  <si>
+    <t>Dwelling number (Dw_Num)</t>
+  </si>
+  <si>
+    <t>Number of people in dwelling</t>
+  </si>
+  <si>
+    <t>High Rise Metric (HR_met)</t>
+  </si>
+  <si>
+    <t>HR_met = 0.6 x (Dw_num)) x P_tr_hub)</t>
   </si>
 </sst>
 </file>
@@ -147,8 +204,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,9 +219,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -197,6 +252,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -514,140 +575,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E8E549-1FC9-9F44-9650-E9D923DA747D}">
-  <dimension ref="C2:I20"/>
+  <dimension ref="C2:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="3"/>
-    <col min="2" max="2" width="11.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.625" style="3"/>
+    <col min="1" max="1" width="10.625" style="4"/>
+    <col min="2" max="2" width="11.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.625" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:9">
-      <c r="C2" s="5"/>
+      <c r="C2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="3:9">
-      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="3:9">
-      <c r="D5" s="4"/>
+      <c r="C5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="3:9">
-      <c r="E6" s="7"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="13">
+        <v>1500</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="11"/>
+      <c r="D9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="15"/>
+      <c r="D10" s="16">
+        <v>800</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="3"/>
+      <c r="I11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="3:9">
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="3:9">
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="3:9">
-      <c r="C10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9">
-      <c r="C11" s="11"/>
-      <c r="D11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9">
-      <c r="C12" s="11"/>
-      <c r="D12" s="13">
-        <v>1500</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9">
-      <c r="C13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="11"/>
-      <c r="D14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0.3</v>
-      </c>
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14"/>
     </row>
     <row r="15" spans="3:9">
-      <c r="C15" s="15"/>
-      <c r="D15" s="16">
-        <v>800</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0.15</v>
+      <c r="C15" s="6"/>
+      <c r="I15" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="3:9">
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="2"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="D20" s="6"/>
+      <c r="C16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="G22"/>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="G25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -658,7 +781,7 @@
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -667,7 +790,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
